--- a/biology/Médecine/Ulcère_de_Curling/Ulcère_de_Curling.xlsx
+++ b/biology/Médecine/Ulcère_de_Curling/Ulcère_de_Curling.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ulc%C3%A8re_de_Curling</t>
+          <t>Ulcère_de_Curling</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ulcère de Curling est une altération au niveau de l'estomac et du duodénum. 
 Principalement liée au stress et peut être la conséquence de brûlures, c'est un cas d'interaction entre plusieurs organes. Cette ulcération apparaît au niveau de l'estomac et/ou du duodénum (comme un ulcère gastroduodénal de type digestif), mais survient après une importante brûlure de la peau, notamment lorsque la surface brûlée dépasse 30 %.
